--- a/template/daily_sample.xlsx
+++ b/template/daily_sample.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kishimotokeisuke/fullstack/fullstack-node/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC07270B-B896-8A44-83B0-FDFF0BAD8872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7CA94A-6628-6A42-900C-2D1BE9970979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sample" sheetId="19" r:id="rId1"/>
-    <sheet name="【記入例】進捗管理表" sheetId="16" r:id="rId2"/>
+    <sheet name="進捗管理表" sheetId="16" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">【記入例】進捗管理表!$A$1:$H$18</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">【記入例】進捗管理表!$1:$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">進捗管理表!$A$1:$H$18</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">進捗管理表!$1:$9</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -512,13 +512,6 @@
     <t>合格点</t>
     <rPh sb="0" eb="3">
       <t>ゴウカク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>平均点</t>
-    <rPh sb="0" eb="3">
-      <t>ヘイキn</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -874,6 +867,13 @@
   </si>
   <si>
     <t>ヒューマンスキル/ビジネスマナー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平均点</t>
+    <rPh sb="0" eb="3">
+      <t>ヘイキンテn</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1360,11 +1360,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1753,13 +1753,13 @@
     </row>
     <row r="3" spans="2:6" ht="9" customHeight="1"/>
     <row r="4" spans="2:6">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="25" t="s">
@@ -1783,34 +1783,34 @@
         <v>45033</v>
       </c>
       <c r="C6" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="E6" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="26" t="s">
         <v>66</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="10" customHeight="1"/>
     <row r="8" spans="2:6">
-      <c r="B8" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
+      <c r="B8" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="25" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>46</v>
@@ -1822,67 +1822,67 @@
     </row>
     <row r="10" spans="2:6" ht="68" customHeight="1">
       <c r="B10" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="29" t="s">
         <v>71</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>72</v>
       </c>
       <c r="F10" s="29"/>
     </row>
     <row r="11" spans="2:6" ht="9" customHeight="1"/>
     <row r="12" spans="2:6">
-      <c r="B12" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
+      <c r="B12" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="25" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F13" s="25"/>
     </row>
     <row r="14" spans="2:6" ht="78" customHeight="1">
       <c r="B14" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="29" t="s">
-        <v>82</v>
-      </c>
       <c r="D14" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F14" s="29"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="25" t="s">
@@ -1903,30 +1903,30 @@
     </row>
     <row r="18" spans="2:6" ht="96" customHeight="1">
       <c r="B18" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="D18" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="E18" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="29" t="s">
+      <c r="F18" s="29" t="s">
         <v>77</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="11" customHeight="1"/>
     <row r="20" spans="2:6">
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="25" t="s">
@@ -1936,13 +1936,13 @@
         <v>60</v>
       </c>
       <c r="D21" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="F21" s="25" t="s">
         <v>62</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="48" customHeight="1">
@@ -1953,10 +1953,10 @@
         <v>9.25</v>
       </c>
       <c r="D22" s="31">
+        <v>8.5</v>
+      </c>
+      <c r="E22" s="31">
         <v>8</v>
-      </c>
-      <c r="E22" s="31">
-        <v>8.5</v>
       </c>
       <c r="F22" s="31">
         <v>10</v>
@@ -1964,22 +1964,22 @@
     </row>
     <row r="23" spans="2:6" ht="10" customHeight="1"/>
     <row r="24" spans="2:6">
-      <c r="B24" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
+      <c r="B24" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
     </row>
     <row r="25" spans="2:6" ht="112" customHeight="1">
       <c r="B25" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
+        <v>79</v>
+      </c>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/template/daily_sample.xlsx
+++ b/template/daily_sample.xlsx
@@ -8,16 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kishimotokeisuke/fullstack/fullstack-node/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B366DBA-D0EE-E448-9AB1-3389575B3450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C349B3A-4D47-734E-AFA1-E6E80D7EE609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10020" yWindow="500" windowWidth="35840" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="実績管理表" sheetId="16" r:id="rId1"/>
-    <sheet name="sample" sheetId="19" r:id="rId2"/>
+    <sheet name="sample(通常)" sheetId="19" r:id="rId2"/>
+    <sheet name="sample(個人開発)" sheetId="20" r:id="rId3"/>
+    <sheet name="sample(チーム開発)" sheetId="21" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">実績管理表!$A$1:$I$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'sample(チーム開発)'!$A$1:$G$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'sample(個人開発)'!$A$1:$G$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">実績管理表!$A$1:$J$13</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">実績管理表!$1:$6</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="106">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -601,20 +605,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>対象単元</t>
-    <rPh sb="0" eb="4">
-      <t>タイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>講義実施日</t>
-    <rPh sb="0" eb="5">
-      <t>コウギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>実績管理表</t>
     <rPh sb="0" eb="2">
       <t>ジッセキ</t>
@@ -677,6 +667,436 @@
   </si>
   <si>
     <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>研修日報【個人開発】</t>
+    <rPh sb="0" eb="2">
+      <t>ケンシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">ニッポウ </t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>コジンカイハテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人開発</t>
+    <rPh sb="0" eb="4">
+      <t>コジンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発テーマ（システム名）</t>
+    <rPh sb="0" eb="2">
+      <t>カイハテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本日の進捗率</t>
+    <rPh sb="0" eb="2">
+      <t>ホンジテゥ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>シンチョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全体の進捗率</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>シンチョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本日までの予定進捗率</t>
+    <rPh sb="0" eb="2">
+      <t>ホンジテゥ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>リテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細リンク</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業内容</t>
+    <rPh sb="0" eb="4">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在の課題</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課題に対する解決策</t>
+    <rPh sb="0" eb="2">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タイス</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>カイケテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>研修日報【チーム開発】</t>
+    <rPh sb="0" eb="2">
+      <t>ケンシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">ニッポウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チーム開発</t>
+    <rPh sb="3" eb="5">
+      <t>コジンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本日の進捗率（個人）</t>
+    <rPh sb="0" eb="2">
+      <t>ホンジテゥ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>シンチョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コジtn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全体の進捗率（チーム）</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>シンチョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本日までの予定進捗率（チーム）</t>
+    <rPh sb="0" eb="2">
+      <t>ホンジテゥ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>リテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・スケジュールの作成
+・画面遷移図の作成
+・DBの作成
+特に問題なくスケジュール通りに進みました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明日までに疑問点を調べ、それでも分からない点は明日の午前中に講師に質問します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・明日以降のプログラミングで、チャートを表示するライブラリの使い方で疑問点があります。
+</t>
+    <rPh sb="20" eb="22">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ツカイカタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・スケジュール作成
+これまでの演習に比べて機能が多いため、必要な作業を洗い出し、工数を算出することが難しいと感じました。
+WBSを活用し、無事に予定を立てることができました。
+毎日予定と実績を振り返りながら、無事に完成させられるよう勧めていきます。
+・その他
+電車など、空調が効きすぎて寒さを感じることがあります。
+体調を崩さないよう、体温調節に気を付けます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブログシステム (Hello Blog)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人開発</t>
+    <rPh sb="0" eb="4">
+      <t>コジンク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループディスカッション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自社開発したソフトが売れない！どうやって利益を出して売るか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個別報告を担当しました。
+最初と最後にメリハリをつけるよう指摘されたので、次回は改善します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中間発表のパワーポイント作成をディスカッション中に進めることができませんでした。
+ディスカッション中に作成できるような工夫が必要です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個別報告の際に最初と最後にメリハリをつけます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チーム開発実習</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・画面遷移図の作成
+特に問題なく予定通り進みました。
+・DB設計
+データの洗い出しが不十分だったため、レビューで指摘を受けて修正が多く発生しています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・DB設計
+データの洗い出しが不十分で、正規化の理解が浅いため、テーブル設計が滞っています。
+</t>
+    <rPh sb="10" eb="11">
+      <t>アライダセィ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>フジュウ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>セイキカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>リカイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>アサイ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>トドコオッテ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ソウダn</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>コウセィ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>モトメ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>リカイ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>フカメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メンバーで相談しつつ、わからない箇所は講師にアドバイスを求めて理解を深めます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・チーム開発
+今日はチームメンバーで一緒にランチに行き、親睦を深めることができました。
+そろそろ実装に入りそうですが、フレームワークを理解しているメンバーが少ないため、うまく分担して教え合いながら進められるように工夫したいです。</t>
+    <rPh sb="67" eb="69">
+      <t>リカイ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>スクナイ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ブンタn</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>オシエ</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>ススメラレル</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>クフウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単元</t>
+    <rPh sb="0" eb="2">
+      <t>タンゲn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>演習・課題</t>
+    <rPh sb="0" eb="2">
+      <t>エンシュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>演習名</t>
+    <rPh sb="0" eb="3">
+      <t>エンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>演習</t>
+    <rPh sb="0" eb="2">
+      <t>エンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <rPh sb="0" eb="2">
+      <t>ゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSS1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>就業時間や講座開始時間を意識し、守ることができました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>服装や髪型、身だしなみにも乱れはありませんでした。髪を切り頭もさっぱりしました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チーム開発の進捗を報告する際に、進捗の遅れの理由をうまく説明できませんでした。
+報告内容をチーム内で認識を合わせて報告できるようにします。</t>
+    <rPh sb="6" eb="8">
+      <t>シンチョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シンチョク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オクレ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>リユウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="40" eb="44">
+      <t>ホウコク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>アワセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教室に入室する際に、静止してみんなに聞こえる声で挨拶をしました。</t>
+    <rPh sb="0" eb="2">
+      <t>キョウシテゥ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウシテゥ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セイシシテ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>キコエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人開発の際に1人で考え込んで時間を使ってしまいました。詰まった時にも自分から質問して解決を図ります。</t>
+    <rPh sb="0" eb="4">
+      <t>コジn</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カンガエ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジカンヲ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ツカッテ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ツマッタ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ジブンカラ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>シツモn</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>カイケテゥ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ハカリ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -687,7 +1107,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d\(aaa\)"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -761,6 +1181,14 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -788,7 +1216,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -913,11 +1341,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalUp="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -942,6 +1400,64 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -951,81 +1467,38 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1369,265 +1842,299 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" style="17" customWidth="1"/>
-    <col min="3" max="7" width="11.83203125" style="17" customWidth="1"/>
-    <col min="8" max="8" width="21.83203125" style="17" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" style="17" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="17"/>
+    <col min="1" max="1" width="10.83203125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" style="13" customWidth="1"/>
+    <col min="3" max="6" width="11.83203125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="13" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" style="13" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="13" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A1" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="1:10" ht="16" customHeight="1">
+      <c r="A5" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+    </row>
+    <row r="6" spans="1:10" ht="15">
+      <c r="A6" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" s="42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="40" customHeight="1">
+      <c r="A7" s="19">
+        <v>45022</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="8">
+        <v>8</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="22">
+        <v>8</v>
+      </c>
+      <c r="F7" s="23">
+        <v>10</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" s="43">
+        <v>45022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="40" customHeight="1">
+      <c r="A8" s="19">
+        <v>45023</v>
+      </c>
+      <c r="B8" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="16"/>
-    </row>
-    <row r="2" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="D4" s="20"/>
-      <c r="H4" s="21"/>
-    </row>
-    <row r="5" spans="1:9" ht="16" customHeight="1">
-      <c r="A5" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="26"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="40" customHeight="1">
-      <c r="A7" s="32">
+      <c r="C8" s="8">
+        <v>7</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="22">
+        <v>8</v>
+      </c>
+      <c r="F8" s="23">
+        <v>10</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" s="43">
         <v>45022</v>
       </c>
-      <c r="B7" s="33" t="s">
+    </row>
+    <row r="9" spans="1:10" ht="40" customHeight="1">
+      <c r="A9" s="19">
+        <v>45026</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C9" s="8">
+        <v>85</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="21">
+        <v>80</v>
+      </c>
+      <c r="F9" s="23">
+        <v>100</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" s="43">
+        <v>45023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="40" customHeight="1">
+      <c r="A10" s="19">
+        <v>45027</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="8">
+        <v>9</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="22">
         <v>8</v>
       </c>
-      <c r="D7" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="36">
+      <c r="F10" s="23">
+        <v>10</v>
+      </c>
+      <c r="G10" s="24"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+    </row>
+    <row r="11" spans="1:10" ht="40" customHeight="1">
+      <c r="A11" s="19">
+        <v>45028</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="8">
+        <v>10</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="22">
         <v>8</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F11" s="23">
         <v>10</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-    </row>
-    <row r="8" spans="1:9" ht="40" customHeight="1">
-      <c r="A8" s="32">
-        <v>45023</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="34">
-        <v>7</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="36">
+      <c r="G11" s="24"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+    </row>
+    <row r="12" spans="1:10" ht="40" customHeight="1">
+      <c r="A12" s="19">
+        <v>45029</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="8">
+        <v>90</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="22">
+        <v>80</v>
+      </c>
+      <c r="F12" s="23">
+        <v>100</v>
+      </c>
+      <c r="G12" s="24"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+    </row>
+    <row r="13" spans="1:10" ht="40" customHeight="1">
+      <c r="A13" s="19">
+        <v>45030</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="8">
         <v>8</v>
       </c>
-      <c r="F8" s="37">
+      <c r="D13" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="22">
+        <v>8</v>
+      </c>
+      <c r="F13" s="23">
         <v>10</v>
       </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-    </row>
-    <row r="9" spans="1:9" ht="40" customHeight="1">
-      <c r="A9" s="32">
-        <v>45026</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="34">
-        <v>85</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="35">
-        <v>80</v>
-      </c>
-      <c r="F9" s="37">
-        <v>100</v>
-      </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-    </row>
-    <row r="10" spans="1:9" ht="40" customHeight="1">
-      <c r="A10" s="32">
-        <v>45027</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="34">
-        <v>9</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="36">
-        <v>8</v>
-      </c>
-      <c r="F10" s="37">
-        <v>10</v>
-      </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-    </row>
-    <row r="11" spans="1:9" ht="40" customHeight="1">
-      <c r="A11" s="32">
-        <v>45028</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="34">
-        <v>10</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="36">
-        <v>8</v>
-      </c>
-      <c r="F11" s="37">
-        <v>10</v>
-      </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-    </row>
-    <row r="12" spans="1:9" ht="40" customHeight="1">
-      <c r="A12" s="32">
-        <v>45029</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="34">
-        <v>90</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="36">
-        <v>80</v>
-      </c>
-      <c r="F12" s="37">
-        <v>100</v>
-      </c>
-      <c r="G12" s="38"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-    </row>
-    <row r="13" spans="1:9" ht="40" customHeight="1">
-      <c r="A13" s="32">
-        <v>45030</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="34">
-        <v>8</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="36">
-        <v>8</v>
-      </c>
-      <c r="F13" s="37">
-        <v>10</v>
-      </c>
-      <c r="G13" s="38"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G5:J5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="96" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="85" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P/&amp;N&amp;R株式会社テクノコア
 教育事業部ＩＴスクールＡｘｉＺ</oddFooter>
@@ -1642,7 +2149,7 @@
   </sheetPr>
   <dimension ref="B1:F25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -1659,13 +2166,13 @@
     </row>
     <row r="3" spans="2:6" ht="9" customHeight="1"/>
     <row r="4" spans="2:6">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="2" t="s">
@@ -1703,13 +2210,13 @@
     </row>
     <row r="7" spans="2:6" ht="10" customHeight="1"/>
     <row r="8" spans="2:6">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="2" t="s">
@@ -1724,7 +2231,7 @@
       <c r="E9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="33"/>
     </row>
     <row r="10" spans="2:6" ht="68" customHeight="1">
       <c r="B10" s="6" t="s">
@@ -1739,17 +2246,17 @@
       <c r="E10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="34"/>
     </row>
     <row r="11" spans="2:6" ht="9" customHeight="1"/>
     <row r="12" spans="2:6">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="2" t="s">
@@ -1764,7 +2271,7 @@
       <c r="E13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="33"/>
     </row>
     <row r="14" spans="2:6" ht="78" customHeight="1">
       <c r="B14" s="7" t="s">
@@ -1779,16 +2286,16 @@
       <c r="E14" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="6"/>
+      <c r="F14" s="34"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="2" t="s">
@@ -1826,13 +2333,13 @@
     </row>
     <row r="19" spans="2:6" ht="11" customHeight="1"/>
     <row r="20" spans="2:6">
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="2" t="s">
@@ -1870,22 +2377,22 @@
     </row>
     <row r="23" spans="2:6" ht="10" customHeight="1"/>
     <row r="24" spans="2:6">
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
     </row>
     <row r="25" spans="2:6" ht="112" customHeight="1">
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1900,4 +2407,492 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4309B776-B58E-D149-B357-15A845203583}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="B1:F23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
+    <col min="2" max="6" width="35.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.1640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="7" customHeight="1"/>
+    <row r="2" spans="2:6" ht="25">
+      <c r="B2" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="9" customHeight="1"/>
+    <row r="4" spans="2:6">
+      <c r="B4" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="29" customHeight="1">
+      <c r="B6" s="5">
+        <v>45087</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="10" customHeight="1"/>
+    <row r="8" spans="2:6">
+      <c r="B8" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="33"/>
+    </row>
+    <row r="10" spans="2:6" ht="68" customHeight="1">
+      <c r="B10" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="34"/>
+    </row>
+    <row r="11" spans="2:6" ht="9" customHeight="1"/>
+    <row r="12" spans="2:6">
+      <c r="B12" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="33"/>
+    </row>
+    <row r="14" spans="2:6" ht="78" customHeight="1">
+      <c r="B14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="34"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="43" customHeight="1">
+      <c r="B18" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="38">
+        <v>1</v>
+      </c>
+      <c r="D18" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="36"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+    </row>
+    <row r="20" spans="2:6" ht="113" customHeight="1">
+      <c r="B20" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+    </row>
+    <row r="21" spans="2:6" ht="10" customHeight="1"/>
+    <row r="22" spans="2:6">
+      <c r="B22" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+    </row>
+    <row r="23" spans="2:6" ht="112" customHeight="1">
+      <c r="B23" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="42" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5440C635-0A7C-CA49-B136-D37C805222D5}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="B1:F23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
+    <col min="2" max="6" width="35.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.1640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="7" customHeight="1"/>
+    <row r="2" spans="2:6" ht="25">
+      <c r="B2" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="9" customHeight="1"/>
+    <row r="4" spans="2:6">
+      <c r="B4" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="29" customHeight="1">
+      <c r="B6" s="5">
+        <v>45097</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="10" customHeight="1"/>
+    <row r="8" spans="2:6">
+      <c r="B8" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="33"/>
+    </row>
+    <row r="10" spans="2:6" ht="68" customHeight="1">
+      <c r="B10" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="34"/>
+    </row>
+    <row r="11" spans="2:6" ht="9" customHeight="1"/>
+    <row r="12" spans="2:6">
+      <c r="B12" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="33"/>
+    </row>
+    <row r="14" spans="2:6" ht="78" customHeight="1">
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="43" customHeight="1">
+      <c r="B18" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="38">
+        <v>1</v>
+      </c>
+      <c r="D18" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="38">
+        <v>0.6</v>
+      </c>
+      <c r="F18" s="36"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+    </row>
+    <row r="20" spans="2:6" ht="113" customHeight="1">
+      <c r="B20" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+    </row>
+    <row r="21" spans="2:6" ht="10" customHeight="1"/>
+    <row r="22" spans="2:6">
+      <c r="B22" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+    </row>
+    <row r="23" spans="2:6" ht="112" customHeight="1">
+      <c r="B23" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="42" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>